--- a/va_facility_data_2025-02-20/Raton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Raton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7f04abfa12a44547b42e2c3410f55898"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71a522d1bcee46919ef8127bc68e1e55"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R240db77f8a904c8ab35f43b899818b53"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc46f08a8dddf4e57b5fdaa5ba5b2e3a4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2177079041624d2892eb4c942f37d9d4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb906011b590e433283c90dd12dec8299"/>
   </x:sheets>
 </x:workbook>
 </file>
